--- a/biology/Zoologie/Adhemarius_donysa/Adhemarius_donysa.xlsx
+++ b/biology/Zoologie/Adhemarius_donysa/Adhemarius_donysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adhemarius donysa  est une espèce de lépidoptère (papillons) de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini, et du genre Adhemarius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Face dorsale du mâle - MHNT
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue au Mexique.
 </t>
@@ -577,11 +593,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Adhemarius donysa a été décrite par l'entomologiste britannique Herbert Druce en 1889, sous le nom initial d’Ambulyx donysa[1].
-Synonymie
-Ambulyx donysa Druce, 1889 Protonyme</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adhemarius donysa a été décrite par l'entomologiste britannique Herbert Druce en 1889, sous le nom initial d’Ambulyx donysa.
+</t>
         </is>
       </c>
     </row>
@@ -606,10 +623,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ambulyx donysa Druce, 1889 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adhemarius_donysa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adhemarius_donysa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble exister deux générations par an.
 </t>
